--- a/new_diopters.xlsx
+++ b/new_diopters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SANCHDI2\OneDrive - Alcon\GitHub\dioptre_reduzierung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1F4B6E-E406-464A-B526-55E178211DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FB59CA-953C-44BC-9DBB-CEBEAAB4DFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E580F7B-2A8A-48C8-85B4-85FFF11CE74E}"/>
   </bookViews>
@@ -747,18 +747,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859410A0-FF4C-4983-ABA1-855E76AAE14D}">
   <dimension ref="A1:E506"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
+      <selection activeCell="I504" sqref="I504"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.453125" customWidth="1"/>
-    <col min="4" max="4" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -775,7 +775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -792,7 +792,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -809,7 +809,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -826,7 +826,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -843,7 +843,7 @@
         <v>27.24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -860,7 +860,7 @@
         <v>26.77</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -877,7 +877,7 @@
         <v>35.659999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -894,7 +894,7 @@
         <v>27.26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -911,7 +911,7 @@
         <v>26.97</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -928,7 +928,7 @@
         <v>38.229999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -945,7 +945,7 @@
         <v>27.26</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -962,7 +962,7 @@
         <v>33.94</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -979,7 +979,7 @@
         <v>29.87</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>89</v>
       </c>
@@ -996,7 +996,7 @@
         <v>26.53</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>30.37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>89</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>34.69</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>27.56</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>89</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>27.51</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>32.909999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>26.84</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>27.35</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>27.08</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>26.45</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>91</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>26.89</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>26.74</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>91</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>26.55</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>91</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>26.79</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>26.68</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>27.14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>91</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>27.58</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>28.08</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>27.06</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>91</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>91</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>29.14</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>91</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>27.74</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>27.48</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>27.29</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>26.56</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>26.53</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>26.53</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>27.18</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>28.17</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>27.26</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>91</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>27.19</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>91</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>26.87</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>91</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>27.18</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>28.49</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>93</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>93</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>26.18</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>93</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>26.82</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>93</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>93</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>26.18</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>93</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>93</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>26.82</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>26.16</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>94</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>27.87</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>94</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>94</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>26.69</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>94</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>30.12</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>94</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>94</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>26.02</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>94</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>27.93</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>94</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>27.27</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>94</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>94</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>27.03</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>94</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>26.15</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>27.61</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>94</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>26.03</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>94</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>26.13</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>28.01</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>25.84</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>32.65</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>28.04</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>95</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>29.07</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>95</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>27.87</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>95</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>27.06</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>28.19</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>95</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>26.23</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>26.63</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>28.01</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>27.01</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>29.55</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>26.79</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>29.38</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>26.63</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>28.44</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>95</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>28.93</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>95</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>26.68</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>95</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>38.950000000000003</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>95</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>95</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>95</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>26.61</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>95</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>29.01</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>95</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>26.62</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>95</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>31.87</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>95</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>22.48</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>95</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>28.07</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>96</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>29.46</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>96</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>97</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>26.28</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>97</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>27.93</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>97</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>27.06</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>97</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>27.16</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>97</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>27.34</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>97</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>26.74</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>97</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>26.58</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>97</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>26.02</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>97</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>30.53</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>97</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>28.93</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>97</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>97</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>27.69</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>97</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>26.18</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>97</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>28.07</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>97</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>26.61</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>97</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>27.66</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>97</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>26.53</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>97</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>27.93</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>97</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>26.52</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>97</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>31.32</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>98</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>27.63</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>98</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>28.77</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>98</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>27.14</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>98</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>28.52</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>98</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>26.87</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>98</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>28.94</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>98</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>26.74</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>98</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>28.85</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>98</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>27.16</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>98</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>28.65</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>98</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>26.81</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>98</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>28.32</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>98</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>28.44</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>98</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>26.89</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>98</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>98</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>26.85</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>98</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>28.57</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>98</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>28.77</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>98</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>26.81</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>98</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>28.78</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>98</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>29.23</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>98</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>28.51</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>98</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>26.74</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>99</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>99</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>27.45</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>99</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>26.42</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>99</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>26.84</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>99</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>99</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>26.47</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>99</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>26.31</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>99</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>26.31</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>99</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>99</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>99</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>99</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>100</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>26.81</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>100</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>100</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>26.31</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>100</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>26.68</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>100</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>26.37</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>102</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>102</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>26.29</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>102</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>26.66</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>102</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>102</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>26.26</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>102</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>102</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>26.31</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>102</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>102</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>26.37</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>102</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>102</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>102</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>47.48</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>102</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>102</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>26.37</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>102</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>26.31</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>102</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>26.31</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>102</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>102</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>102</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>102</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>102</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>26.29</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>102</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>26.66</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>102</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>102</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>26.26</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>102</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>102</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>26.31</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>102</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>102</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>26.37</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>102</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>102</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>102</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>47.48</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>102</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>102</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>26.37</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>102</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>26.31</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>102</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>26.31</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>102</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>102</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>102</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>103</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>103</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>103</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>103</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>103</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>103</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>103</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>103</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>27.42</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>103</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>26.23</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>103</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>103</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>26.31</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>103</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>103</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>103</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>26.37</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>103</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>103</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>103</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>103</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>103</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>103</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>103</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>103</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>103</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>103</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>103</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>103</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>103</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>27.42</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>103</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>26.23</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>103</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>103</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>26.31</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>103</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>103</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>103</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>26.37</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>103</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>103</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>103</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>103</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>103</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>104</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>104</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>104</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>104</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>26.37</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>104</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>26.53</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>104</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>26.37</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>104</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>26.31</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>104</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>104</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>104</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>104</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>26.31</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>104</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>26.29</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>104</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>104</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>104</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>104</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>29.07</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>104</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>104</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>104</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>37.020000000000003</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>104</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>26.28</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>104</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>104</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>104</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>104</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>104</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>27.48</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>104</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>30.13</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>104</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>26.31</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>105</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>105</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>105</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>27.14</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>105</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>26.31</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>106</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>26.29</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>106</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>105</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>44.72</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>105</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>106</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>106</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>106</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>106</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>106</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>106</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>106</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>106</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>105</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>106</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>35.03</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>106</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>106</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>42.36</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>106</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>106</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>32.25</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>106</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>26.31</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>106</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>106</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>106</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>106</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>106</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>106</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>106</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>27.16</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>106</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>106</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>107</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>107</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>107</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>107</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>107</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>31.35</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>107</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>107</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>107</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>107</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>107</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>107</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>107</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>107</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>107</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>107</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>107</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>107</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>107</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>108</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>108</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>107</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>107</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>26.31</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>107</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>107</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>26.52</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>107</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>28.77</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>109</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>54.81</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>109</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>29.41</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>109</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>109</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>26.55</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>109</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>109</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>109</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>109</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>26.31</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>109</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>109</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>109</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>27.22</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>109</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>34.340000000000003</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>109</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>26.37</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>109</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>109</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>49.47</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>109</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>109</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>109</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>109</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>109</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>109</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>109</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>109</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>109</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>109</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>109</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>109</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>26.48</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>109</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>109</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>28.46</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>109</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>26.37</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>109</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>109</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>109</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>26.29</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>109</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>109</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>26.29</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>110</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>110</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>26.42</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>110</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>28.27</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>111</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>111</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>26.37</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>111</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>26.56</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>112</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>27.26</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>112</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>112</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>32.81</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>112</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>26.28</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>112</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>112</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>112</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>112</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>26.28</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>112</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>112</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>112</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>112</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>26.42</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>112</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>26.31</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>112</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>26.29</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>112</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>26.31</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>112</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>26.28</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>112</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>26.29</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>112</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>28.94</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>112</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>112</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>26.37</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>112</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>112</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>112</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>26.82</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>112</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>26.31</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>112</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>29.95</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>112</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>26.28</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>112</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>112</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>26.29</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>112</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>26.29</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>113</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>28.07</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>113</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>113</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>113</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>113</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>113</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>113</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>113</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>113</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>113</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>113</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>113</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>33.81</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>113</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>26.37</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>113</v>
       </c>
@@ -7813,51 +7813,51 @@
         <v>27.45</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>6</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C416">
+      <c r="D416">
         <v>18.5</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>6</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C417">
+      <c r="D417">
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>6</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C418">
+      <c r="D418">
         <v>17.39</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>6</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C419">
+      <c r="D419">
         <v>15.96</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>6</v>
       </c>
@@ -7865,13 +7865,13 @@
         <v>12</v>
       </c>
       <c r="C420">
+        <v>23.29</v>
+      </c>
+      <c r="D420">
         <v>18.13</v>
       </c>
-      <c r="D420">
-        <v>23.29</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>6</v>
       </c>
@@ -7879,13 +7879,13 @@
         <v>13</v>
       </c>
       <c r="C421">
+        <v>22.13</v>
+      </c>
+      <c r="D421">
         <v>18.48</v>
       </c>
-      <c r="D421">
-        <v>22.13</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>6</v>
       </c>
@@ -7893,35 +7893,35 @@
         <v>14</v>
       </c>
       <c r="C422">
+        <v>15.74</v>
+      </c>
+      <c r="D422">
         <v>16.510000000000002</v>
       </c>
-      <c r="D422">
-        <v>15.74</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>6</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C423">
+      <c r="D423">
         <v>16.77</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>6</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C424">
+      <c r="D424">
         <v>20.62</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>6</v>
       </c>
@@ -7929,24 +7929,24 @@
         <v>17</v>
       </c>
       <c r="C425">
+        <v>17.14</v>
+      </c>
+      <c r="D425">
         <v>12.89</v>
       </c>
-      <c r="D425">
-        <v>17.14</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>6</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C426">
+      <c r="D426">
         <v>23.01</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>6</v>
       </c>
@@ -7954,13 +7954,13 @@
         <v>19</v>
       </c>
       <c r="C427">
+        <v>20.09</v>
+      </c>
+      <c r="D427">
         <v>19.16</v>
       </c>
-      <c r="D427">
-        <v>20.09</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>6</v>
       </c>
@@ -7968,24 +7968,24 @@
         <v>20</v>
       </c>
       <c r="C428">
+        <v>12.94</v>
+      </c>
+      <c r="D428">
         <v>21.18</v>
       </c>
-      <c r="D428">
-        <v>12.94</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>6</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C429">
+      <c r="D429">
         <v>21.38</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>6</v>
       </c>
@@ -7993,35 +7993,35 @@
         <v>22</v>
       </c>
       <c r="C430">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="D430">
         <v>20.2</v>
       </c>
-      <c r="D430">
-        <v>18.739999999999998</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>6</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C431">
+      <c r="D431">
         <v>19.260000000000002</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>6</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C432">
+      <c r="D432">
         <v>18.63</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>6</v>
       </c>
@@ -8029,24 +8029,24 @@
         <v>25</v>
       </c>
       <c r="C433">
+        <v>20.59</v>
+      </c>
+      <c r="D433">
         <v>18.149999999999999</v>
       </c>
-      <c r="D433">
-        <v>20.59</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>6</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C434">
+      <c r="D434">
         <v>22.03</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>6</v>
       </c>
@@ -8054,24 +8054,24 @@
         <v>27</v>
       </c>
       <c r="C435">
+        <v>20.94</v>
+      </c>
+      <c r="D435">
         <v>17.28</v>
       </c>
-      <c r="D435">
-        <v>20.94</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>6</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C436">
+      <c r="D436">
         <v>18.66</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>6</v>
       </c>
@@ -8079,13 +8079,13 @@
         <v>29</v>
       </c>
       <c r="C437">
+        <v>18.04</v>
+      </c>
+      <c r="D437">
         <v>19.87</v>
       </c>
-      <c r="D437">
-        <v>18.04</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>6</v>
       </c>
@@ -8093,35 +8093,35 @@
         <v>30</v>
       </c>
       <c r="C438">
+        <v>28.06</v>
+      </c>
+      <c r="D438">
         <v>23.51</v>
       </c>
-      <c r="D438">
-        <v>28.06</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>6</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C439">
+      <c r="D439">
         <v>20.41</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>6</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C440">
+      <c r="D440">
         <v>17.420000000000002</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>6</v>
       </c>
@@ -8129,13 +8129,13 @@
         <v>33</v>
       </c>
       <c r="C441">
+        <v>22.5</v>
+      </c>
+      <c r="D441">
         <v>18.239999999999998</v>
       </c>
-      <c r="D441">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>6</v>
       </c>
@@ -8143,13 +8143,13 @@
         <v>34</v>
       </c>
       <c r="C442">
+        <v>23.64</v>
+      </c>
+      <c r="D442">
         <v>18.18</v>
       </c>
-      <c r="D442">
-        <v>23.64</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>6</v>
       </c>
@@ -8157,35 +8157,35 @@
         <v>35</v>
       </c>
       <c r="C443">
+        <v>24.93</v>
+      </c>
+      <c r="D443">
         <v>17.600000000000001</v>
       </c>
-      <c r="D443">
-        <v>24.93</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>6</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C444">
+      <c r="D444">
         <v>20.49</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>6</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C445">
+      <c r="D445">
         <v>15.16</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>6</v>
       </c>
@@ -8193,46 +8193,46 @@
         <v>38</v>
       </c>
       <c r="C446">
+        <v>18.7</v>
+      </c>
+      <c r="D446">
         <v>18.149999999999999</v>
       </c>
-      <c r="D446">
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>6</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C447">
+      <c r="D447">
         <v>23.13</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>6</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C448">
+      <c r="D448">
         <v>15.66</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>6</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C449">
+      <c r="D449">
         <v>13.44</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>6</v>
       </c>
@@ -8240,46 +8240,46 @@
         <v>8</v>
       </c>
       <c r="C450">
+        <v>16.73</v>
+      </c>
+      <c r="D450">
         <v>13.65</v>
       </c>
-      <c r="D450">
-        <v>16.73</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>6</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C451">
+      <c r="D451">
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>6</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C452">
+      <c r="D452">
         <v>35.630000000000003</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>6</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C453">
+      <c r="D453">
         <v>20.41</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>6</v>
       </c>
@@ -8287,13 +8287,13 @@
         <v>45</v>
       </c>
       <c r="C454">
+        <v>19.82</v>
+      </c>
+      <c r="D454">
         <v>15.43</v>
       </c>
-      <c r="D454">
-        <v>19.82</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>6</v>
       </c>
@@ -8301,24 +8301,24 @@
         <v>46</v>
       </c>
       <c r="C455">
+        <v>20.62</v>
+      </c>
+      <c r="D455">
         <v>15.58</v>
       </c>
-      <c r="D455">
-        <v>20.62</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>6</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C456">
+      <c r="D456">
         <v>17.3</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>6</v>
       </c>
@@ -8326,13 +8326,13 @@
         <v>47</v>
       </c>
       <c r="C457">
+        <v>24.97</v>
+      </c>
+      <c r="D457">
         <v>22.32</v>
       </c>
-      <c r="D457">
-        <v>24.97</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>6</v>
       </c>
@@ -8340,35 +8340,35 @@
         <v>48</v>
       </c>
       <c r="C458">
+        <v>33.5</v>
+      </c>
+      <c r="D458">
         <v>28.33</v>
       </c>
-      <c r="D458">
-        <v>33.5</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>6</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C459">
+      <c r="D459">
         <v>19.37</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>6</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C460">
+      <c r="D460">
         <v>19.559999999999999</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>6</v>
       </c>
@@ -8376,13 +8376,13 @@
         <v>51</v>
       </c>
       <c r="C461">
+        <v>19.87</v>
+      </c>
+      <c r="D461">
         <v>12.51</v>
       </c>
-      <c r="D461">
-        <v>19.87</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>6</v>
       </c>
@@ -8390,13 +8390,13 @@
         <v>52</v>
       </c>
       <c r="C462">
+        <v>25.25</v>
+      </c>
+      <c r="D462">
         <v>25.12</v>
       </c>
-      <c r="D462">
-        <v>25.25</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>6</v>
       </c>
@@ -8404,57 +8404,57 @@
         <v>53</v>
       </c>
       <c r="C463">
+        <v>28.48</v>
+      </c>
+      <c r="D463">
         <v>28.35</v>
       </c>
-      <c r="D463">
-        <v>28.48</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>6</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C464">
+      <c r="D464">
         <v>15.26</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>6</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C465">
+      <c r="D465">
         <v>12.49</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>6</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C466">
+      <c r="D466">
         <v>20.059999999999999</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>6</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C467">
+      <c r="D467">
         <v>22.74</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>6</v>
       </c>
@@ -8462,24 +8462,24 @@
         <v>58</v>
       </c>
       <c r="C468">
+        <v>21.63</v>
+      </c>
+      <c r="D468">
         <v>27.13</v>
       </c>
-      <c r="D468">
-        <v>21.63</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>6</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C469">
+      <c r="D469">
         <v>33.07</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>6</v>
       </c>
@@ -8487,13 +8487,13 @@
         <v>60</v>
       </c>
       <c r="C470">
+        <v>26.85</v>
+      </c>
+      <c r="D470">
         <v>16.3</v>
       </c>
-      <c r="D470">
-        <v>26.85</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>6</v>
       </c>
@@ -8501,24 +8501,24 @@
         <v>61</v>
       </c>
       <c r="C471">
+        <v>20.03</v>
+      </c>
+      <c r="D471">
         <v>19.13</v>
       </c>
-      <c r="D471">
-        <v>20.03</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>6</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C472">
+      <c r="D472">
         <v>18.84</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>6</v>
       </c>
@@ -8526,24 +8526,24 @@
         <v>63</v>
       </c>
       <c r="C473">
+        <v>17.75</v>
+      </c>
+      <c r="D473">
         <v>16.27</v>
       </c>
-      <c r="D473">
-        <v>17.75</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>6</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C474">
+      <c r="D474">
         <v>16.54</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>6</v>
       </c>
@@ -8551,13 +8551,13 @@
         <v>65</v>
       </c>
       <c r="C475">
+        <v>24.72</v>
+      </c>
+      <c r="D475">
         <v>20.88</v>
       </c>
-      <c r="D475">
-        <v>24.72</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>6</v>
       </c>
@@ -8565,46 +8565,46 @@
         <v>66</v>
       </c>
       <c r="C476">
+        <v>29.5</v>
+      </c>
+      <c r="D476">
         <v>22.42</v>
       </c>
-      <c r="D476">
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>6</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C477">
+      <c r="D477">
         <v>3.3</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>6</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C478">
+      <c r="D478">
         <v>25.78</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>6</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C479">
+      <c r="D479">
         <v>25.87</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>6</v>
       </c>
@@ -8612,46 +8612,46 @@
         <v>70</v>
       </c>
       <c r="C480">
+        <v>28.32</v>
+      </c>
+      <c r="D480">
         <v>25.47</v>
       </c>
-      <c r="D480">
-        <v>28.32</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>6</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C481">
+      <c r="D481">
         <v>26.2</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>6</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C482">
+      <c r="D482">
         <v>19.690000000000001</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>6</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C483">
+      <c r="D483">
         <v>18.84</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>6</v>
       </c>
@@ -8659,24 +8659,24 @@
         <v>74</v>
       </c>
       <c r="C484">
+        <v>30</v>
+      </c>
+      <c r="D484">
         <v>29.41</v>
       </c>
-      <c r="D484">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>6</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C485">
+      <c r="D485">
         <v>26.93</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>6</v>
       </c>
@@ -8684,68 +8684,68 @@
         <v>76</v>
       </c>
       <c r="C486">
+        <v>32.36</v>
+      </c>
+      <c r="D486">
         <v>30.65</v>
       </c>
-      <c r="D486">
-        <v>32.36</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>6</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C487">
+      <c r="D487">
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>6</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C488">
+      <c r="D488">
         <v>30.08</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>6</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C489">
+      <c r="D489">
         <v>15.75</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>6</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C490">
+      <c r="D490">
         <v>22.37</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>81</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C491">
+      <c r="D491">
         <v>21.5</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>81</v>
       </c>
@@ -8753,13 +8753,13 @@
         <v>5</v>
       </c>
       <c r="C492">
+        <v>16.829999999999998</v>
+      </c>
+      <c r="D492">
         <v>14.97</v>
       </c>
-      <c r="D492">
-        <v>16.829999999999998</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>81</v>
       </c>
@@ -8767,13 +8767,13 @@
         <v>82</v>
       </c>
       <c r="C493">
+        <v>25.1</v>
+      </c>
+      <c r="D493">
         <v>24.69</v>
       </c>
-      <c r="D493">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>81</v>
       </c>
@@ -8781,24 +8781,24 @@
         <v>83</v>
       </c>
       <c r="C494">
+        <v>26.45</v>
+      </c>
+      <c r="D494">
         <v>22.15</v>
       </c>
-      <c r="D494">
-        <v>26.45</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>81</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C495">
+      <c r="D495">
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>81</v>
       </c>
@@ -8806,24 +8806,24 @@
         <v>49</v>
       </c>
       <c r="C496">
+        <v>28.64</v>
+      </c>
+      <c r="D496">
         <v>23.87</v>
       </c>
-      <c r="D496">
-        <v>28.64</v>
-      </c>
-    </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>81</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C497">
+      <c r="D497">
         <v>16.57</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>81</v>
       </c>
@@ -8831,24 +8831,24 @@
         <v>62</v>
       </c>
       <c r="C498">
+        <v>29.12</v>
+      </c>
+      <c r="D498">
         <v>26.23</v>
       </c>
-      <c r="D498">
-        <v>29.12</v>
-      </c>
-    </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>81</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C499">
+      <c r="D499">
         <v>25.67</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>84</v>
       </c>
@@ -8856,35 +8856,35 @@
         <v>75</v>
       </c>
       <c r="C500">
+        <v>25.18</v>
+      </c>
+      <c r="D500">
         <v>20.57</v>
       </c>
-      <c r="D500">
-        <v>25.18</v>
-      </c>
-    </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>84</v>
       </c>
       <c r="B501" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C501">
+      <c r="D501">
         <v>12.54</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>84</v>
       </c>
       <c r="B502" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C502">
+      <c r="D502">
         <v>13.59</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>84</v>
       </c>
@@ -8892,42 +8892,42 @@
         <v>87</v>
       </c>
       <c r="C503">
+        <v>25.5</v>
+      </c>
+      <c r="D503">
         <v>16.54</v>
       </c>
-      <c r="D503">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>84</v>
       </c>
       <c r="B504" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C504">
+      <c r="D504">
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>84</v>
       </c>
       <c r="B505" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C505">
+      <c r="D505">
         <v>15.9</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>84</v>
       </c>
       <c r="B506" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C506">
+      <c r="D506">
         <v>16.88</v>
       </c>
     </row>
